--- a/GDP1.xlsx
+++ b/GDP1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_2429\AC\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{317611D9-B649-40D4-A67E-193A2BC7CCF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{69B32393-22D1-4E42-A847-AD7E47EEF1B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-60" windowWidth="15480" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -884,8 +884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -909,7 +909,7 @@
         <v>17991.348000000002</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <v>2015</v>
@@ -920,7 +920,7 @@
         <v>18193.706999999999</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3">
         <v>2015</v>
@@ -931,7 +931,7 @@
         <v>18306.96</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4">
         <v>2015</v>
@@ -942,7 +942,7 @@
         <v>18332.079000000002</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5">
         <v>2015</v>
@@ -953,7 +953,7 @@
         <v>18425.306</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6">
         <v>2016</v>
@@ -964,7 +964,7 @@
         <v>18611.616999999998</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7">
         <v>2016</v>
@@ -975,7 +975,7 @@
         <v>18775.458999999999</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8">
         <v>2016</v>
@@ -986,7 +986,7 @@
         <v>18968.041000000001</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C9">
         <v>2016</v>
@@ -997,7 +997,7 @@
         <v>19148.194</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C10">
         <v>2017</v>
@@ -1008,7 +1008,7 @@
         <v>19304.506000000001</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C11">
         <v>2017</v>
@@ -1019,7 +1019,7 @@
         <v>19561.896000000001</v>
       </c>
       <c r="B12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C12">
         <v>2017</v>
@@ -1030,7 +1030,7 @@
         <v>19894.75</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C13">
         <v>2017</v>
@@ -1041,7 +1041,7 @@
         <v>20155.486000000001</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C14">
         <v>2018</v>
@@ -1052,7 +1052,7 @@
         <v>20470.197</v>
       </c>
       <c r="B15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C15">
         <v>2018</v>
@@ -1063,7 +1063,7 @@
         <v>20687.277999999998</v>
       </c>
       <c r="B16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C16">
         <v>2018</v>
@@ -1074,7 +1074,7 @@
         <v>20819.269</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C17">
         <v>2018</v>
@@ -1085,7 +1085,7 @@
         <v>21013.084999999999</v>
       </c>
       <c r="B18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C18">
         <v>2019</v>
@@ -1096,7 +1096,7 @@
         <v>21272.448</v>
       </c>
       <c r="B19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C19">
         <v>2019</v>
@@ -1107,7 +1107,7 @@
         <v>21531.839</v>
       </c>
       <c r="B20">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C20">
         <v>2019</v>
@@ -1118,7 +1118,7 @@
         <v>21706.531999999999</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C21">
         <v>2019</v>
@@ -1129,7 +1129,7 @@
         <v>21538.031999999999</v>
       </c>
       <c r="B22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C22">
         <v>2020</v>
@@ -1140,7 +1140,7 @@
         <v>19636.731</v>
       </c>
       <c r="B23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C23">
         <v>2020</v>
@@ -1151,7 +1151,7 @@
         <v>21362.428</v>
       </c>
       <c r="B24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C24">
         <v>2020</v>
@@ -1162,7 +1162,7 @@
         <v>21704.705999999998</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C25">
         <v>2020</v>
@@ -1173,7 +1173,7 @@
         <v>22313.85</v>
       </c>
       <c r="B26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C26">
         <v>2021</v>
@@ -1184,7 +1184,7 @@
         <v>23046.934000000001</v>
       </c>
       <c r="B27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C27">
         <v>2021</v>
@@ -1195,7 +1195,7 @@
         <v>23550.42</v>
       </c>
       <c r="B28">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C28">
         <v>2021</v>
@@ -1206,7 +1206,7 @@
         <v>24349.120999999999</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C29">
         <v>2021</v>
@@ -1217,7 +1217,7 @@
         <v>24740.48</v>
       </c>
       <c r="B30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C30">
         <v>2022</v>
@@ -1228,7 +1228,7 @@
         <v>25248.475999999999</v>
       </c>
       <c r="B31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C31">
         <v>2022</v>
@@ -1239,7 +1239,7 @@
         <v>25723.940999999999</v>
       </c>
       <c r="B32">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C32">
         <v>2022</v>
@@ -1250,7 +1250,7 @@
         <v>26144.955999999998</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C33">
         <v>2022</v>
